--- a/site/StructureDefinition-MelderInOrganisation.xlsx
+++ b/site/StructureDefinition-MelderInOrganisation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-MelderInOrganisation.xlsx
+++ b/site/StructureDefinition-MelderInOrganisation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-MelderInOrganisation.xlsx
+++ b/site/StructureDefinition-MelderInOrganisation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/MelderInOrganisation</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/MelderInOrganisation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -552,7 +552,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/Melder)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/Melder)
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/Organisation)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/Organisation)
 </t>
   </si>
   <si>
@@ -1206,7 +1206,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
